--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Ячейка 1</t>
+  </si>
+  <si>
+    <t>Ячейка 2</t>
   </si>
 </sst>
 </file>
@@ -69,8 +72,36 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,6 +389,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
